--- a/target/classes/com/qa/fb/keyword/scenerios/KeywordDrivenData.xlsx
+++ b/target/classes/com/qa/fb/keyword/scenerios/KeywordDrivenData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>open browser</t>
   </si>
@@ -101,29 +101,107 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>verify sign up link</t>
-  </si>
-  <si>
-    <t>linkTest</t>
-  </si>
-  <si>
-    <t>Sign</t>
-  </si>
-  <si>
-    <t>up</t>
+    <t>manishkumar0156@gmail.com</t>
+  </si>
+  <si>
+    <t>behappy@</t>
+  </si>
+  <si>
+    <t>Click On Create new account Button</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>Create New Account</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>SurName</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>MobileNumber or Email Address</t>
+  </si>
+  <si>
+    <t>reg_email__</t>
+  </si>
+  <si>
+    <t>Re-Enter email address</t>
+  </si>
+  <si>
+    <t>reg_email_confirmation__</t>
+  </si>
+  <si>
+    <t>New password</t>
+  </si>
+  <si>
+    <t>reg_passwd__</t>
+  </si>
+  <si>
+    <t>Drop down date of birth to select day</t>
+  </si>
+  <si>
+    <t>Drop down date of birth to select month</t>
+  </si>
+  <si>
+    <t>Drop down date of birth to select year</t>
+  </si>
+  <si>
+    <t>Select Gender radio button</t>
   </si>
   <si>
     <t>qwerty11</t>
   </si>
   <si>
-    <t>manish@gmail.com</t>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Click on signUp button</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>raju</t>
+  </si>
+  <si>
+    <t>raju@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>//label[text()='Male']</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Sign Up')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +225,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,11 +267,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -180,10 +283,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -487,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -582,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,8 +751,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2" display="behappy@"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -647,17 +760,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
@@ -713,48 +826,216 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="E15" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/target/classes/com/qa/fb/keyword/scenerios/KeywordDrivenData.xlsx
+++ b/target/classes/com/qa/fb/keyword/scenerios/KeywordDrivenData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>manishkumar0156@gmail.com</t>
-  </si>
-  <si>
     <t>behappy@</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>//button[contains(text(),'Sign Up')]</t>
+  </si>
+  <si>
+    <t>manish@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -828,13 +828,13 @@
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>20</v>
@@ -845,98 +845,98 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>20</v>
@@ -947,30 +947,30 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>20</v>
@@ -981,30 +981,30 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>6</v>
